--- a/po_analysis_by_asin/B0BVRFRK5S_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRFRK5S_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,15 +452,15 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45334</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45348</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
@@ -468,15 +468,15 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45362</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45376</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -484,23 +484,23 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45390</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45453</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45481</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -508,39 +508,39 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45502</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45509</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45544</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45558</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45572</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -548,17 +548,49 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45579</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45586</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B19" t="n">
         <v>36</v>
       </c>
     </row>
@@ -573,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,15 +627,15 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
@@ -611,15 +643,15 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45444</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
@@ -627,33 +659,57 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45474</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45505</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45536</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B12" t="n">
         <v>46</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BVRFRK5S_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRFRK5S_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -621,7 +622,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -711,6 +712,411 @@
       </c>
       <c r="B12" t="n">
         <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-7.366073852294731</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.70402306038798</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-7.216849832438281</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.82536587524062</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-7.582955310303777</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.51294457330778</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-6.021279566024782</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.27920897604844</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-3.885058266441594</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.93474944122173</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-3.792693546850624</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.66652363172814</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-4.57610600148247</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15.81503029297246</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.530528320994505</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.62817076881087</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3.557612168012401</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16.96853349438583</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-3.375406494570448</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16.67206084318449</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-2.547092556123525</v>
+      </c>
+      <c r="D12" t="n">
+        <v>17.17344313702716</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-3.055858215753123</v>
+      </c>
+      <c r="D13" t="n">
+        <v>17.06581873242048</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-2.530142862552939</v>
+      </c>
+      <c r="D14" t="n">
+        <v>16.97925756431568</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-2.117899754495333</v>
+      </c>
+      <c r="D15" t="n">
+        <v>17.26704739381196</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.67983065440064</v>
+      </c>
+      <c r="D16" t="n">
+        <v>16.47469043119569</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-2.189458617485215</v>
+      </c>
+      <c r="D17" t="n">
+        <v>17.937428389936</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.786539597259435</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17.77741193339039</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.939381168272476</v>
+      </c>
+      <c r="D19" t="n">
+        <v>18.32008119852734</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-2.346072482106258</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18.50177633451825</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.285092315723528</v>
+      </c>
+      <c r="D21" t="n">
+        <v>18.4266726859014</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.262469193470042</v>
+      </c>
+      <c r="D22" t="n">
+        <v>17.86282720944297</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.569581324880331</v>
+      </c>
+      <c r="D23" t="n">
+        <v>17.91372017809743</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.668182183836023</v>
+      </c>
+      <c r="D24" t="n">
+        <v>18.12673230858715</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.48392628707545</v>
+      </c>
+      <c r="D25" t="n">
+        <v>18.14702367429435</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.382246057125505</v>
+      </c>
+      <c r="D26" t="n">
+        <v>18.47173708257656</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>9</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.330328867163401</v>
+      </c>
+      <c r="D27" t="n">
+        <v>18.28700458589067</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BVRFRK5S_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRFRK5S_po_data.xlsx
@@ -725,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,16 +744,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -762,12 +752,6 @@
       <c r="B2" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v>-7.366073852294731</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.70402306038798</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -776,12 +760,6 @@
       <c r="B3" t="n">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
-        <v>-7.216849832438281</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.82536587524062</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -790,12 +768,6 @@
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>-7.582955310303777</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.51294457330778</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -804,12 +776,6 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="n">
-        <v>-6.021279566024782</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.27920897604844</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -818,12 +784,6 @@
       <c r="B6" t="n">
         <v>6</v>
       </c>
-      <c r="C6" t="n">
-        <v>-3.885058266441594</v>
-      </c>
-      <c r="D6" t="n">
-        <v>15.93474944122173</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -832,12 +792,6 @@
       <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
-        <v>-3.792693546850624</v>
-      </c>
-      <c r="D7" t="n">
-        <v>15.66652363172814</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -846,12 +800,6 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="n">
-        <v>-4.57610600148247</v>
-      </c>
-      <c r="D8" t="n">
-        <v>15.81503029297246</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -860,12 +808,6 @@
       <c r="B9" t="n">
         <v>6</v>
       </c>
-      <c r="C9" t="n">
-        <v>-3.530528320994505</v>
-      </c>
-      <c r="D9" t="n">
-        <v>16.62817076881087</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -874,12 +816,6 @@
       <c r="B10" t="n">
         <v>6</v>
       </c>
-      <c r="C10" t="n">
-        <v>-3.557612168012401</v>
-      </c>
-      <c r="D10" t="n">
-        <v>16.96853349438583</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -888,12 +824,6 @@
       <c r="B11" t="n">
         <v>7</v>
       </c>
-      <c r="C11" t="n">
-        <v>-3.375406494570448</v>
-      </c>
-      <c r="D11" t="n">
-        <v>16.67206084318449</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -902,12 +832,6 @@
       <c r="B12" t="n">
         <v>7</v>
       </c>
-      <c r="C12" t="n">
-        <v>-2.547092556123525</v>
-      </c>
-      <c r="D12" t="n">
-        <v>17.17344313702716</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -916,12 +840,6 @@
       <c r="B13" t="n">
         <v>7</v>
       </c>
-      <c r="C13" t="n">
-        <v>-3.055858215753123</v>
-      </c>
-      <c r="D13" t="n">
-        <v>17.06581873242048</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -930,12 +848,6 @@
       <c r="B14" t="n">
         <v>7</v>
       </c>
-      <c r="C14" t="n">
-        <v>-2.530142862552939</v>
-      </c>
-      <c r="D14" t="n">
-        <v>16.97925756431568</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -944,12 +856,6 @@
       <c r="B15" t="n">
         <v>8</v>
       </c>
-      <c r="C15" t="n">
-        <v>-2.117899754495333</v>
-      </c>
-      <c r="D15" t="n">
-        <v>17.26704739381196</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -958,12 +864,6 @@
       <c r="B16" t="n">
         <v>8</v>
       </c>
-      <c r="C16" t="n">
-        <v>-1.67983065440064</v>
-      </c>
-      <c r="D16" t="n">
-        <v>16.47469043119569</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -972,12 +872,6 @@
       <c r="B17" t="n">
         <v>8</v>
       </c>
-      <c r="C17" t="n">
-        <v>-2.189458617485215</v>
-      </c>
-      <c r="D17" t="n">
-        <v>17.937428389936</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -986,12 +880,6 @@
       <c r="B18" t="n">
         <v>8</v>
       </c>
-      <c r="C18" t="n">
-        <v>-1.786539597259435</v>
-      </c>
-      <c r="D18" t="n">
-        <v>17.77741193339039</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1000,12 +888,6 @@
       <c r="B19" t="n">
         <v>8</v>
       </c>
-      <c r="C19" t="n">
-        <v>-1.939381168272476</v>
-      </c>
-      <c r="D19" t="n">
-        <v>18.32008119852734</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1014,12 +896,6 @@
       <c r="B20" t="n">
         <v>8</v>
       </c>
-      <c r="C20" t="n">
-        <v>-2.346072482106258</v>
-      </c>
-      <c r="D20" t="n">
-        <v>18.50177633451825</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1028,12 +904,6 @@
       <c r="B21" t="n">
         <v>8</v>
       </c>
-      <c r="C21" t="n">
-        <v>-1.285092315723528</v>
-      </c>
-      <c r="D21" t="n">
-        <v>18.4266726859014</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1042,12 +912,6 @@
       <c r="B22" t="n">
         <v>8</v>
       </c>
-      <c r="C22" t="n">
-        <v>-1.262469193470042</v>
-      </c>
-      <c r="D22" t="n">
-        <v>17.86282720944297</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1056,12 +920,6 @@
       <c r="B23" t="n">
         <v>8</v>
       </c>
-      <c r="C23" t="n">
-        <v>-1.569581324880331</v>
-      </c>
-      <c r="D23" t="n">
-        <v>17.91372017809743</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1070,12 +928,6 @@
       <c r="B24" t="n">
         <v>8</v>
       </c>
-      <c r="C24" t="n">
-        <v>-1.668182183836023</v>
-      </c>
-      <c r="D24" t="n">
-        <v>18.12673230858715</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1084,12 +936,6 @@
       <c r="B25" t="n">
         <v>8</v>
       </c>
-      <c r="C25" t="n">
-        <v>-1.48392628707545</v>
-      </c>
-      <c r="D25" t="n">
-        <v>18.14702367429435</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1098,12 +944,6 @@
       <c r="B26" t="n">
         <v>8</v>
       </c>
-      <c r="C26" t="n">
-        <v>-1.382246057125505</v>
-      </c>
-      <c r="D26" t="n">
-        <v>18.47173708257656</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1111,12 +951,6 @@
       </c>
       <c r="B27" t="n">
         <v>9</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-1.330328867163401</v>
-      </c>
-      <c r="D27" t="n">
-        <v>18.28700458589067</v>
       </c>
     </row>
   </sheetData>
